--- a/app/tables/Ethiopia_members/forms/Ethiopia_Section95/Ethiopia_Section95.xlsx
+++ b/app/tables/Ethiopia_members/forms/Ethiopia_Section95/Ethiopia_Section95.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24030"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22202"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="initial" sheetId="5" r:id="rId1"/>
@@ -307,9 +307,6 @@
     <t>answering_self_95</t>
   </si>
   <si>
-    <t>Who is answering for  {{name}}?</t>
-  </si>
-  <si>
     <t>Ethiopia_Section95</t>
   </si>
   <si>
@@ -416,6 +413,9 @@
   </si>
   <si>
     <t>Section 9.5</t>
+  </si>
+  <si>
+    <t>Who is answering for  {{data.name}}?</t>
   </si>
 </sst>
 </file>
@@ -1076,8 +1076,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+    <sheetView topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1122,7 +1122,7 @@
         <v>93</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>94</v>
+        <v>130</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="45">
@@ -1378,7 +1378,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
@@ -1404,7 +1404,7 @@
         <v>27</v>
       </c>
       <c r="B2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -1428,7 +1428,7 @@
         <v>31</v>
       </c>
       <c r="C5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -1453,7 +1453,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C64"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
       <selection activeCell="E69" sqref="E69"/>
     </sheetView>
   </sheetViews>
@@ -1466,7 +1466,7 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>4</v>
@@ -1477,7 +1477,7 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>34</v>
@@ -1488,7 +1488,7 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>4</v>
@@ -1499,7 +1499,7 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>36</v>
@@ -1564,7 +1564,7 @@
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B11" s="6" t="s">
         <v>43</v>
@@ -1629,7 +1629,7 @@
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="7" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B18" s="7" t="s">
         <v>57</v>
@@ -1640,7 +1640,7 @@
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="9" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B19" s="9" t="s">
         <v>58</v>
@@ -1687,7 +1687,7 @@
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="11" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B24" s="11" t="s">
         <v>63</v>
@@ -1716,7 +1716,7 @@
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="13" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B27" s="13" t="s">
         <v>66</v>
@@ -1727,7 +1727,7 @@
     </row>
     <row r="28" spans="1:3">
       <c r="A28" s="15" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B28" s="15" t="s">
         <v>67</v>
@@ -1738,7 +1738,7 @@
     </row>
     <row r="29" spans="1:3">
       <c r="A29" s="17" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B29" s="17" t="s">
         <v>68</v>
@@ -1749,7 +1749,7 @@
     </row>
     <row r="30" spans="1:3">
       <c r="A30" s="19" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B30" s="19" t="s">
         <v>69</v>
@@ -1760,10 +1760,10 @@
     </row>
     <row r="31" spans="1:3">
       <c r="A31" s="21" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B31" s="22" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C31" s="22" t="s">
         <v>46</v>
@@ -1771,10 +1771,10 @@
     </row>
     <row r="32" spans="1:3">
       <c r="A32" s="23" t="s">
+        <v>120</v>
+      </c>
+      <c r="B32" s="24" t="s">
         <v>121</v>
-      </c>
-      <c r="B32" s="24" t="s">
-        <v>122</v>
       </c>
       <c r="C32" s="24" t="s">
         <v>7</v>
@@ -1783,7 +1783,7 @@
     <row r="33" spans="1:3">
       <c r="A33" s="23"/>
       <c r="B33" s="24" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C33" s="24" t="s">
         <v>16</v>
@@ -1792,7 +1792,7 @@
     <row r="34" spans="1:3">
       <c r="A34" s="23"/>
       <c r="B34" s="24" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C34" s="24" t="s">
         <v>6</v>
@@ -1801,7 +1801,7 @@
     <row r="35" spans="1:3">
       <c r="A35" s="23"/>
       <c r="B35" s="24" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C35" s="24" t="s">
         <v>7</v>
@@ -1809,7 +1809,7 @@
     </row>
     <row r="36" spans="1:3">
       <c r="A36" s="25" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B36" s="25" t="s">
         <v>51</v>
@@ -1820,7 +1820,7 @@
     </row>
     <row r="37" spans="1:3">
       <c r="A37" s="26" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B37" s="26" t="s">
         <v>9</v>
@@ -1885,10 +1885,10 @@
     </row>
     <row r="44" spans="1:3">
       <c r="A44" s="9" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B44" s="10" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C44" s="10" t="s">
         <v>7</v>
@@ -1897,7 +1897,7 @@
     <row r="45" spans="1:3">
       <c r="A45" s="9"/>
       <c r="B45" s="10" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C45" s="10" t="s">
         <v>6</v>
@@ -1906,7 +1906,7 @@
     <row r="46" spans="1:3">
       <c r="A46" s="9"/>
       <c r="B46" s="10" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C46" s="10" t="s">
         <v>16</v>
@@ -1915,7 +1915,7 @@
     <row r="47" spans="1:3">
       <c r="A47" s="9"/>
       <c r="B47" s="10" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C47" s="10" t="s">
         <v>6</v>
@@ -1924,7 +1924,7 @@
     <row r="48" spans="1:3">
       <c r="A48" s="9"/>
       <c r="B48" s="10" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C48" s="10" t="s">
         <v>6</v>
@@ -1933,7 +1933,7 @@
     <row r="49" spans="1:3">
       <c r="A49" s="9"/>
       <c r="B49" s="10" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C49" s="10" t="s">
         <v>6</v>
@@ -1942,7 +1942,7 @@
     <row r="50" spans="1:3">
       <c r="A50" s="9"/>
       <c r="B50" s="10" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C50" s="10" t="s">
         <v>6</v>
@@ -1951,7 +1951,7 @@
     <row r="51" spans="1:3">
       <c r="A51" s="9"/>
       <c r="B51" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C51" s="10" t="s">
         <v>6</v>
@@ -1960,7 +1960,7 @@
     <row r="52" spans="1:3">
       <c r="A52" s="9"/>
       <c r="B52" s="10" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C52" s="10" t="s">
         <v>6</v>
@@ -1969,7 +1969,7 @@
     <row r="53" spans="1:3">
       <c r="A53" s="9"/>
       <c r="B53" s="10" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C53" s="10" t="s">
         <v>16</v>
@@ -1978,7 +1978,7 @@
     <row r="54" spans="1:3">
       <c r="A54" s="9"/>
       <c r="B54" s="10" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C54" s="10" t="s">
         <v>6</v>
@@ -1986,7 +1986,7 @@
     </row>
     <row r="55" spans="1:3">
       <c r="A55" s="27" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B55" s="28" t="s">
         <v>93</v>
